--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Pcsk9</t>
+  </si>
+  <si>
+    <t>Vldlr</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pcsk9</t>
-  </si>
-  <si>
-    <t>Vldlr</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.23205</v>
+        <v>0.9926313333333333</v>
       </c>
       <c r="H2">
-        <v>0.69615</v>
+        <v>2.977894</v>
       </c>
       <c r="I2">
-        <v>0.09706073221701757</v>
+        <v>0.4448810748577895</v>
       </c>
       <c r="J2">
-        <v>0.1111980768155644</v>
+        <v>0.5108647542924117</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.196272</v>
+        <v>0.104012</v>
       </c>
       <c r="N2">
-        <v>0.588816</v>
+        <v>0.312036</v>
       </c>
       <c r="O2">
-        <v>0.02813229386822481</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P2">
-        <v>0.03089009369338271</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q2">
-        <v>0.0455449176</v>
+        <v>0.1032455702426667</v>
       </c>
       <c r="R2">
-        <v>0.4099042584000001</v>
+        <v>0.9292101321839999</v>
       </c>
       <c r="S2">
-        <v>0.002730541041794213</v>
+        <v>0.006486318061373058</v>
       </c>
       <c r="T2">
-        <v>0.003434919011356752</v>
+        <v>0.008290501854885552</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.23205</v>
+        <v>0.9926313333333333</v>
       </c>
       <c r="H3">
-        <v>0.69615</v>
+        <v>2.977894</v>
       </c>
       <c r="I3">
-        <v>0.09706073221701757</v>
+        <v>0.4448810748577895</v>
       </c>
       <c r="J3">
-        <v>0.1111980768155644</v>
+        <v>0.5108647542924117</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>14.425447</v>
       </c>
       <c r="O3">
-        <v>0.6892151609068061</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P3">
-        <v>0.7567787040415452</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q3">
-        <v>1.11580832545</v>
+        <v>4.773050229846444</v>
       </c>
       <c r="R3">
-        <v>10.04227492905</v>
+        <v>42.957452068618</v>
       </c>
       <c r="S3">
-        <v>0.06689572817268419</v>
+        <v>0.2998629562597899</v>
       </c>
       <c r="T3">
-        <v>0.08415233646439502</v>
+        <v>0.3832705044003039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.23205</v>
+        <v>0.9926313333333333</v>
       </c>
       <c r="H4">
-        <v>0.69615</v>
+        <v>2.977894</v>
       </c>
       <c r="I4">
-        <v>0.09706073221701757</v>
+        <v>0.4448810748577895</v>
       </c>
       <c r="J4">
-        <v>0.1111980768155644</v>
+        <v>0.5108647542924117</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03080033333333333</v>
+        <v>2.1739945</v>
       </c>
       <c r="N4">
-        <v>0.092401</v>
+        <v>4.347989</v>
       </c>
       <c r="O4">
-        <v>0.004414710343669059</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P4">
-        <v>0.004847482995302872</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q4">
-        <v>0.00714721735</v>
+        <v>2.157975059194333</v>
       </c>
       <c r="R4">
-        <v>0.06432495615</v>
+        <v>12.947850355166</v>
       </c>
       <c r="S4">
-        <v>0.0004284950184825601</v>
+        <v>0.1355730087939439</v>
       </c>
       <c r="T4">
-        <v>0.0005390307864738309</v>
+        <v>0.1155219617913381</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,108 +726,108 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.23205</v>
+        <v>0.9926313333333333</v>
       </c>
       <c r="H5">
-        <v>0.69615</v>
+        <v>2.977894</v>
       </c>
       <c r="I5">
-        <v>0.09706073221701757</v>
+        <v>0.4448810748577895</v>
       </c>
       <c r="J5">
-        <v>0.1111980768155644</v>
+        <v>0.5108647542924117</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.868607</v>
+        <v>0.047446</v>
       </c>
       <c r="N5">
-        <v>3.737214</v>
+        <v>0.142338</v>
       </c>
       <c r="O5">
-        <v>0.267833421212511</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P5">
-        <v>0.1960593642364025</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q5">
-        <v>0.43361025435</v>
+        <v>0.04709638624133333</v>
       </c>
       <c r="R5">
-        <v>2.6016615261</v>
+        <v>0.423867476172</v>
       </c>
       <c r="S5">
-        <v>0.0259961079750752</v>
+        <v>0.002958791742682634</v>
       </c>
       <c r="T5">
-        <v>0.0218014242447702</v>
+        <v>0.003781786245884128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.23205</v>
+        <v>0.2248433333333334</v>
       </c>
       <c r="H6">
-        <v>0.69615</v>
+        <v>0.6745300000000001</v>
       </c>
       <c r="I6">
-        <v>0.09706073221701757</v>
+        <v>0.1007710923974543</v>
       </c>
       <c r="J6">
-        <v>0.1111980768155644</v>
+        <v>0.1157172158286563</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.072589</v>
+        <v>0.104012</v>
       </c>
       <c r="N6">
-        <v>0.217767</v>
+        <v>0.312036</v>
       </c>
       <c r="O6">
-        <v>0.01040441366878908</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P6">
-        <v>0.01142435503336674</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q6">
-        <v>0.01684427745</v>
+        <v>0.02338640478666667</v>
       </c>
       <c r="R6">
-        <v>0.15159849705</v>
+        <v>0.21047764308</v>
       </c>
       <c r="S6">
-        <v>0.001009860008981414</v>
+        <v>0.001469231652281099</v>
       </c>
       <c r="T6">
-        <v>0.001270366308568595</v>
+        <v>0.001877901703746323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.9926313333333332</v>
+        <v>0.2248433333333334</v>
       </c>
       <c r="H7">
-        <v>2.977894</v>
+        <v>0.6745300000000001</v>
       </c>
       <c r="I7">
-        <v>0.4151929499456486</v>
+        <v>0.1007710923974543</v>
       </c>
       <c r="J7">
-        <v>0.4756677235661973</v>
+        <v>0.1157172158286563</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.196272</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N7">
-        <v>0.588816</v>
+        <v>14.425447</v>
       </c>
       <c r="O7">
-        <v>0.02813229386822481</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P7">
-        <v>0.03089009369338271</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q7">
-        <v>0.194825737056</v>
+        <v>1.081155196101111</v>
       </c>
       <c r="R7">
-        <v>1.753431633504</v>
+        <v>9.730396764910001</v>
       </c>
       <c r="S7">
-        <v>0.01168033007988614</v>
+        <v>0.06792268626281396</v>
       </c>
       <c r="T7">
-        <v>0.0146934205478779</v>
+        <v>0.08681553249818061</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.9926313333333332</v>
+        <v>0.2248433333333334</v>
       </c>
       <c r="H8">
-        <v>2.977894</v>
+        <v>0.6745300000000001</v>
       </c>
       <c r="I8">
-        <v>0.4151929499456486</v>
+        <v>0.1007710923974543</v>
       </c>
       <c r="J8">
-        <v>0.4756677235661973</v>
+        <v>0.1157172158286563</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.808482333333333</v>
+        <v>2.1739945</v>
       </c>
       <c r="N8">
-        <v>14.425447</v>
+        <v>4.347989</v>
       </c>
       <c r="O8">
-        <v>0.6892151609068061</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P8">
-        <v>0.7567787040415452</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q8">
-        <v>4.773050229846444</v>
+        <v>0.4888081700283334</v>
       </c>
       <c r="R8">
-        <v>42.957452068618</v>
+        <v>2.93284902017</v>
       </c>
       <c r="S8">
-        <v>0.2861572758041617</v>
+        <v>0.03070897138104278</v>
       </c>
       <c r="T8">
-        <v>0.3599752033948188</v>
+        <v>0.02616716004233573</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.9926313333333332</v>
+        <v>0.2248433333333334</v>
       </c>
       <c r="H9">
-        <v>2.977894</v>
+        <v>0.6745300000000001</v>
       </c>
       <c r="I9">
-        <v>0.4151929499456486</v>
+        <v>0.1007710923974543</v>
       </c>
       <c r="J9">
-        <v>0.4756677235661973</v>
+        <v>0.1157172158286563</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,152 +992,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03080033333333333</v>
+        <v>0.047446</v>
       </c>
       <c r="N9">
-        <v>0.092401</v>
+        <v>0.142338</v>
       </c>
       <c r="O9">
-        <v>0.004414710343669059</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P9">
-        <v>0.004847482995302872</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q9">
-        <v>0.03057337594377777</v>
+        <v>0.01066791679333333</v>
       </c>
       <c r="R9">
-        <v>0.275160383494</v>
+        <v>0.09601125114</v>
       </c>
       <c r="S9">
-        <v>0.001832956610743525</v>
+        <v>0.0006702031013164731</v>
       </c>
       <c r="T9">
-        <v>0.002305791201401568</v>
+        <v>0.0008566215843936087</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9926313333333332</v>
+        <v>0.8645615</v>
       </c>
       <c r="H10">
-        <v>2.977894</v>
+        <v>1.729123</v>
       </c>
       <c r="I10">
-        <v>0.4151929499456486</v>
+        <v>0.3874822771401495</v>
       </c>
       <c r="J10">
-        <v>0.4756677235661973</v>
+        <v>0.2966351376295993</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.868607</v>
+        <v>0.104012</v>
       </c>
       <c r="N10">
-        <v>3.737214</v>
+        <v>0.312036</v>
       </c>
       <c r="O10">
-        <v>0.267833421212511</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P10">
-        <v>0.1960593642364025</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q10">
-        <v>1.854837857886</v>
+        <v>0.089924770738</v>
       </c>
       <c r="R10">
-        <v>11.129027147316</v>
+        <v>0.539548624428</v>
       </c>
       <c r="S10">
-        <v>0.1112025482472579</v>
+        <v>0.005649449784933027</v>
       </c>
       <c r="T10">
-        <v>0.09325911147016548</v>
+        <v>0.004813904537510492</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.8645615</v>
+      </c>
+      <c r="H11">
+        <v>1.729123</v>
+      </c>
+      <c r="I11">
+        <v>0.3874822771401495</v>
+      </c>
+      <c r="J11">
+        <v>0.2966351376295993</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.9926313333333332</v>
-      </c>
-      <c r="H11">
-        <v>2.977894</v>
-      </c>
-      <c r="I11">
-        <v>0.4151929499456486</v>
-      </c>
-      <c r="J11">
-        <v>0.4756677235661973</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.072589</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N11">
-        <v>0.217767</v>
+        <v>14.425447</v>
       </c>
       <c r="O11">
-        <v>0.01040441366878908</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P11">
-        <v>0.01142435503336674</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q11">
-        <v>0.07205411585533332</v>
+        <v>4.157228698830166</v>
       </c>
       <c r="R11">
-        <v>0.6484870426979999</v>
+        <v>24.943372192981</v>
       </c>
       <c r="S11">
-        <v>0.004319839203599367</v>
+        <v>0.261174474905821</v>
       </c>
       <c r="T11">
-        <v>0.005434196951933587</v>
+        <v>0.2225471572796636</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.046774</v>
+        <v>0.8645615</v>
       </c>
       <c r="H12">
-        <v>0.140322</v>
+        <v>1.729123</v>
       </c>
       <c r="I12">
-        <v>0.01956439857237138</v>
+        <v>0.3874822771401495</v>
       </c>
       <c r="J12">
-        <v>0.022414043718902</v>
+        <v>0.2966351376295993</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.196272</v>
+        <v>2.1739945</v>
       </c>
       <c r="N12">
-        <v>0.588816</v>
+        <v>4.347989</v>
       </c>
       <c r="O12">
-        <v>0.02813229386822481</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P12">
-        <v>0.03089009369338271</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q12">
-        <v>0.009180426528</v>
+        <v>1.87955194591175</v>
       </c>
       <c r="R12">
-        <v>0.08262383875200001</v>
+        <v>7.518207783647</v>
       </c>
       <c r="S12">
-        <v>0.0005503914099930297</v>
+        <v>0.1180813056231068</v>
       </c>
       <c r="T12">
-        <v>0.000692371910524459</v>
+        <v>0.06707817039106292</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,75 +1207,75 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8645615</v>
+      </c>
+      <c r="H13">
+        <v>1.729123</v>
+      </c>
+      <c r="I13">
+        <v>0.3874822771401495</v>
+      </c>
+      <c r="J13">
+        <v>0.2966351376295993</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.046774</v>
-      </c>
-      <c r="H13">
-        <v>0.140322</v>
-      </c>
-      <c r="I13">
-        <v>0.01956439857237138</v>
-      </c>
-      <c r="J13">
-        <v>0.022414043718902</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>4.808482333333333</v>
+        <v>0.047446</v>
       </c>
       <c r="N13">
-        <v>14.425447</v>
+        <v>0.142338</v>
       </c>
       <c r="O13">
-        <v>0.6892151609068061</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P13">
-        <v>0.7567787040415452</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q13">
-        <v>0.2249119526593333</v>
+        <v>0.041019984929</v>
       </c>
       <c r="R13">
-        <v>2.024207573934</v>
+        <v>0.246119909574</v>
       </c>
       <c r="S13">
-        <v>0.01348408011010183</v>
+        <v>0.002577046826288624</v>
       </c>
       <c r="T13">
-        <v>0.01696247095792119</v>
+        <v>0.002195905421362178</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,60 +1284,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.046774</v>
+        <v>0.1491923333333333</v>
       </c>
       <c r="H14">
-        <v>0.140322</v>
+        <v>0.447577</v>
       </c>
       <c r="I14">
-        <v>0.01956439857237138</v>
+        <v>0.06686555560460677</v>
       </c>
       <c r="J14">
-        <v>0.022414043718902</v>
+        <v>0.07678289224933284</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.03080033333333333</v>
+        <v>0.104012</v>
       </c>
       <c r="N14">
-        <v>0.092401</v>
+        <v>0.312036</v>
       </c>
       <c r="O14">
-        <v>0.004414710343669059</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P14">
-        <v>0.004847482995302872</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q14">
-        <v>0.001440654791333333</v>
+        <v>0.01551779297466667</v>
       </c>
       <c r="R14">
-        <v>0.012965893122</v>
+        <v>0.139660136772</v>
       </c>
       <c r="S14">
-        <v>8.637115274511212E-05</v>
+        <v>0.0009748925848116722</v>
       </c>
       <c r="T14">
-        <v>0.0001086516957833526</v>
+        <v>0.00124606112531343</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,60 +1346,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.046774</v>
+        <v>0.1491923333333333</v>
       </c>
       <c r="H15">
-        <v>0.140322</v>
+        <v>0.447577</v>
       </c>
       <c r="I15">
-        <v>0.01956439857237138</v>
+        <v>0.06686555560460677</v>
       </c>
       <c r="J15">
-        <v>0.022414043718902</v>
+        <v>0.07678289224933284</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.868607</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N15">
-        <v>3.737214</v>
+        <v>14.425447</v>
       </c>
       <c r="O15">
-        <v>0.267833421212511</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P15">
-        <v>0.1960593642364025</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q15">
-        <v>0.087402223818</v>
+        <v>0.7173886991021111</v>
       </c>
       <c r="R15">
-        <v>0.524413342908</v>
+        <v>6.456498291919</v>
       </c>
       <c r="S15">
-        <v>0.005239999803603393</v>
+        <v>0.04506935517983112</v>
       </c>
       <c r="T15">
-        <v>0.004394483161494856</v>
+        <v>0.05760549655158136</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,46 +1408,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.046774</v>
+        <v>0.1491923333333333</v>
       </c>
       <c r="H16">
-        <v>0.140322</v>
+        <v>0.447577</v>
       </c>
       <c r="I16">
-        <v>0.01956439857237138</v>
+        <v>0.06686555560460677</v>
       </c>
       <c r="J16">
-        <v>0.022414043718902</v>
+        <v>0.07678289224933284</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.072589</v>
+        <v>2.1739945</v>
       </c>
       <c r="N16">
-        <v>0.217767</v>
+        <v>4.347989</v>
       </c>
       <c r="O16">
-        <v>0.01040441366878908</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P16">
-        <v>0.01142435503336674</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q16">
-        <v>0.003395277886</v>
+        <v>0.3243433121088334</v>
       </c>
       <c r="R16">
-        <v>0.030557500974</v>
+        <v>1.946059872653</v>
       </c>
       <c r="S16">
-        <v>0.0002035560959280184</v>
+        <v>0.02037660190623542</v>
       </c>
       <c r="T16">
-        <v>0.0002560659931781403</v>
+        <v>0.01736293269427379</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,619 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.9118634999999999</v>
+        <v>0.1491923333333333</v>
       </c>
       <c r="H17">
-        <v>1.823727</v>
+        <v>0.447577</v>
       </c>
       <c r="I17">
-        <v>0.3814097780304779</v>
+        <v>0.06686555560460677</v>
       </c>
       <c r="J17">
-        <v>0.291309250932441</v>
+        <v>0.07678289224933284</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.196272</v>
+        <v>0.047446</v>
       </c>
       <c r="N17">
-        <v>0.588816</v>
+        <v>0.142338</v>
       </c>
       <c r="O17">
-        <v>0.02813229386822481</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P17">
-        <v>0.03089009369338271</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q17">
-        <v>0.178973272872</v>
+        <v>0.007078579447333333</v>
       </c>
       <c r="R17">
-        <v>1.073839637232</v>
+        <v>0.06370721502599999</v>
       </c>
       <c r="S17">
-        <v>0.0107299319597678</v>
+        <v>0.0004447059337285563</v>
       </c>
       <c r="T17">
-        <v>0.008998570055052236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.9118634999999999</v>
-      </c>
-      <c r="H18">
-        <v>1.823727</v>
-      </c>
-      <c r="I18">
-        <v>0.3814097780304779</v>
-      </c>
-      <c r="J18">
-        <v>0.291309250932441</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>4.808482333333333</v>
-      </c>
-      <c r="N18">
-        <v>14.425447</v>
-      </c>
-      <c r="O18">
-        <v>0.6892151609068061</v>
-      </c>
-      <c r="P18">
-        <v>0.7567787040415452</v>
-      </c>
-      <c r="Q18">
-        <v>4.3846795301615</v>
-      </c>
-      <c r="R18">
-        <v>26.308077180969</v>
-      </c>
-      <c r="S18">
-        <v>0.262873401536705</v>
-      </c>
-      <c r="T18">
-        <v>0.220456637395966</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.9118634999999999</v>
-      </c>
-      <c r="H19">
-        <v>1.823727</v>
-      </c>
-      <c r="I19">
-        <v>0.3814097780304779</v>
-      </c>
-      <c r="J19">
-        <v>0.291309250932441</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.03080033333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.092401</v>
-      </c>
-      <c r="O19">
-        <v>0.004414710343669059</v>
-      </c>
-      <c r="P19">
-        <v>0.004847482995302872</v>
-      </c>
-      <c r="Q19">
-        <v>0.0280856997545</v>
-      </c>
-      <c r="R19">
-        <v>0.168514198527</v>
-      </c>
-      <c r="S19">
-        <v>0.001683813692247671</v>
-      </c>
-      <c r="T19">
-        <v>0.001412116640269425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.9118634999999999</v>
-      </c>
-      <c r="H20">
-        <v>1.823727</v>
-      </c>
-      <c r="I20">
-        <v>0.3814097780304779</v>
-      </c>
-      <c r="J20">
-        <v>0.291309250932441</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.868607</v>
-      </c>
-      <c r="N20">
-        <v>3.737214</v>
-      </c>
-      <c r="O20">
-        <v>0.267833421212511</v>
-      </c>
-      <c r="P20">
-        <v>0.1960593642364025</v>
-      </c>
-      <c r="Q20">
-        <v>1.7039145191445</v>
-      </c>
-      <c r="R20">
-        <v>6.815658076577999</v>
-      </c>
-      <c r="S20">
-        <v>0.1021542857338073</v>
-      </c>
-      <c r="T20">
-        <v>0.05711390653399701</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.9118634999999999</v>
-      </c>
-      <c r="H21">
-        <v>1.823727</v>
-      </c>
-      <c r="I21">
-        <v>0.3814097780304779</v>
-      </c>
-      <c r="J21">
-        <v>0.291309250932441</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.072589</v>
-      </c>
-      <c r="N21">
-        <v>0.217767</v>
-      </c>
-      <c r="O21">
-        <v>0.01040441366878908</v>
-      </c>
-      <c r="P21">
-        <v>0.01142435503336674</v>
-      </c>
-      <c r="Q21">
-        <v>0.06619125960149999</v>
-      </c>
-      <c r="R21">
-        <v>0.397147557609</v>
-      </c>
-      <c r="S21">
-        <v>0.003968345107950114</v>
-      </c>
-      <c r="T21">
-        <v>0.003328020307156328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.2074523333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.622357</v>
-      </c>
-      <c r="I22">
-        <v>0.08677214123448453</v>
-      </c>
-      <c r="J22">
-        <v>0.09941090496689536</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.196272</v>
-      </c>
-      <c r="N22">
-        <v>0.588816</v>
-      </c>
-      <c r="O22">
-        <v>0.02813229386822481</v>
-      </c>
-      <c r="P22">
-        <v>0.03089009369338271</v>
-      </c>
-      <c r="Q22">
-        <v>0.04071708436800001</v>
-      </c>
-      <c r="R22">
-        <v>0.366453759312</v>
-      </c>
-      <c r="S22">
-        <v>0.002441099376783626</v>
-      </c>
-      <c r="T22">
-        <v>0.003070812168571362</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.2074523333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.622357</v>
-      </c>
-      <c r="I23">
-        <v>0.08677214123448453</v>
-      </c>
-      <c r="J23">
-        <v>0.09941090496689536</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>4.808482333333333</v>
-      </c>
-      <c r="N23">
-        <v>14.425447</v>
-      </c>
-      <c r="O23">
-        <v>0.6892151609068061</v>
-      </c>
-      <c r="P23">
-        <v>0.7567787040415452</v>
-      </c>
-      <c r="Q23">
-        <v>0.9975308798421111</v>
-      </c>
-      <c r="R23">
-        <v>8.977777918579001</v>
-      </c>
-      <c r="S23">
-        <v>0.05980467528315336</v>
-      </c>
-      <c r="T23">
-        <v>0.07523205582844429</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.2074523333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.622357</v>
-      </c>
-      <c r="I24">
-        <v>0.08677214123448453</v>
-      </c>
-      <c r="J24">
-        <v>0.09941090496689536</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.03080033333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.092401</v>
-      </c>
-      <c r="O24">
-        <v>0.004414710343669059</v>
-      </c>
-      <c r="P24">
-        <v>0.004847482995302872</v>
-      </c>
-      <c r="Q24">
-        <v>0.006389601017444445</v>
-      </c>
-      <c r="R24">
-        <v>0.057506409157</v>
-      </c>
-      <c r="S24">
-        <v>0.0003830738694501913</v>
-      </c>
-      <c r="T24">
-        <v>0.000481892671374695</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.2074523333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.622357</v>
-      </c>
-      <c r="I25">
-        <v>0.08677214123448453</v>
-      </c>
-      <c r="J25">
-        <v>0.09941090496689536</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.868607</v>
-      </c>
-      <c r="N25">
-        <v>3.737214</v>
-      </c>
-      <c r="O25">
-        <v>0.267833421212511</v>
-      </c>
-      <c r="P25">
-        <v>0.1960593642364025</v>
-      </c>
-      <c r="Q25">
-        <v>0.387646882233</v>
-      </c>
-      <c r="R25">
-        <v>2.325881293398</v>
-      </c>
-      <c r="S25">
-        <v>0.02324047945276719</v>
-      </c>
-      <c r="T25">
-        <v>0.01949043882597493</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.2074523333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.622357</v>
-      </c>
-      <c r="I26">
-        <v>0.08677214123448453</v>
-      </c>
-      <c r="J26">
-        <v>0.09941090496689536</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.072589</v>
-      </c>
-      <c r="N26">
-        <v>0.217767</v>
-      </c>
-      <c r="O26">
-        <v>0.01040441366878908</v>
-      </c>
-      <c r="P26">
-        <v>0.01142435503336674</v>
-      </c>
-      <c r="Q26">
-        <v>0.01505875742433333</v>
-      </c>
-      <c r="R26">
-        <v>0.135528816819</v>
-      </c>
-      <c r="S26">
-        <v>0.0009028132523301675</v>
-      </c>
-      <c r="T26">
-        <v>0.001135705472530094</v>
+        <v>0.0005684018781642598</v>
       </c>
     </row>
   </sheetData>
